--- a/Team-Data/2007-08/2-21-2007-08.xlsx
+++ b/Team-Data/2007-08/2-21-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -977,10 +1044,10 @@
         <v>20</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -1159,13 +1226,13 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1344,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
@@ -1356,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
         <v>10</v>
@@ -1902,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2124,7 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>15</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -2242,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -2304,49 +2371,49 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.63</v>
+        <v>0.623</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J11" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L11" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O11" t="n">
         <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.729</v>
       </c>
       <c r="R11" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S11" t="n">
         <v>32.1</v>
@@ -2355,16 +2422,16 @@
         <v>44.2</v>
       </c>
       <c r="U11" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
@@ -2376,16 +2443,16 @@
         <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
@@ -2394,10 +2461,10 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2415,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2424,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2451,13 +2518,13 @@
         <v>4</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -2579,13 +2646,13 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -2767,10 +2834,10 @@
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3231,7 @@
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3244,55 +3311,55 @@
         <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O16" t="n">
         <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
         <v>38.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
         <v>21.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.7</v>
+        <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3322,10 +3389,10 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>16</v>
@@ -3337,16 +3404,16 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -3501,10 +3568,10 @@
         <v>22</v>
       </c>
       <c r="AM17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN17" t="n">
         <v>21</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>25</v>
@@ -3534,7 +3601,7 @@
         <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="n">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.724</v>
@@ -3623,16 +3690,16 @@
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W18" t="n">
         <v>7.5</v>
@@ -3644,19 +3711,19 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA18" t="n">
         <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3677,16 +3744,16 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3704,7 +3771,7 @@
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>27</v>
@@ -3713,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3935,7 @@
         <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4080,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
         <v>11</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4499,7 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>13</v>
@@ -4611,13 +4678,13 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.537</v>
+        <v>0.528</v>
       </c>
       <c r="H25" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4885,22 +4952,22 @@
         <v>0.378</v>
       </c>
       <c r="O25" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
         <v>21.4</v>
@@ -4909,10 +4976,10 @@
         <v>13.2</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
@@ -4921,19 +4988,19 @@
         <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4963,19 +5030,19 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5124,7 +5191,7 @@
         <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>19</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J27" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
@@ -5243,19 +5310,19 @@
         <v>7.9</v>
       </c>
       <c r="M27" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O27" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P27" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
@@ -5276,7 +5343,7 @@
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>4.5</v>
@@ -5291,10 +5358,10 @@
         <v>96.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>6</v>
@@ -5306,10 +5373,10 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
@@ -5327,13 +5394,13 @@
         <v>5</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5345,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" t="n">
         <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" t="n">
-        <v>0.264</v>
+        <v>0.269</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J28" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L28" t="n">
         <v>4.3</v>
@@ -5428,61 +5495,61 @@
         <v>12.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O28" t="n">
         <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V28" t="n">
         <v>16</v>
       </c>
       <c r="W28" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
         <v>27</v>
@@ -5491,7 +5558,7 @@
         <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
@@ -5500,16 +5567,16 @@
         <v>23</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5539,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5718,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
         <v>11</v>
@@ -6085,13 +6152,13 @@
         <v>16</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-21-2007-08</t>
+          <t>2008-02-21</t>
         </is>
       </c>
     </row>
